--- a/报销/报销清单.xlsx
+++ b/报销/报销清单.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\赵建伟\Documents\PROJECTS\GITHUB\TextFile\报销\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C89685-989B-4DF8-9073-37A4EB923616}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="14737" windowHeight="8235"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="38">
   <si>
     <t>日期</t>
   </si>
@@ -121,19 +127,25 @@
   </si>
   <si>
     <t>已报销</t>
+  </si>
+  <si>
+    <t>下铺改上铺，票价调整</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高铁票（福州至上海），赵建伟代付</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2068上车测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +158,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -153,349 +166,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -555,251 +246,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -847,61 +296,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1188,30 +593,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.4601769911504" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="18.4609375" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.8407079646018" style="2" customWidth="1"/>
-    <col min="2" max="3" width="9.69026548672566" style="2" customWidth="1"/>
-    <col min="4" max="4" width="52.3008849557522" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.3805309734513" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.4601769911504" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.4601769911504" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="18.4601769911504" style="2"/>
+    <col min="1" max="1" width="13.84375" style="2" customWidth="1"/>
+    <col min="2" max="3" width="9.69140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="52.3046875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.3828125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.4609375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="18.4609375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1231,7 +636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>43481</v>
       </c>
@@ -1249,8 +654,10 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>43481</v>
+      </c>
       <c r="B3" s="6">
         <v>315</v>
       </c>
@@ -1265,8 +672,10 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>43481</v>
+      </c>
       <c r="B4" s="6">
         <v>53</v>
       </c>
@@ -1281,8 +690,10 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>43481</v>
+      </c>
       <c r="B5" s="6">
         <v>52.5</v>
       </c>
@@ -1297,7 +708,7 @@
       </c>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43487</v>
       </c>
@@ -1315,7 +726,7 @@
       </c>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43494</v>
       </c>
@@ -1333,7 +744,7 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43495</v>
       </c>
@@ -1351,7 +762,7 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43521</v>
       </c>
@@ -1369,7 +780,7 @@
       </c>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43523</v>
       </c>
@@ -1387,7 +798,7 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43530</v>
       </c>
@@ -1405,7 +816,7 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43531</v>
       </c>
@@ -1423,7 +834,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43534</v>
       </c>
@@ -1441,7 +852,7 @@
       </c>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43537</v>
       </c>
@@ -1455,11 +866,11 @@
         <v>19</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>43549</v>
       </c>
@@ -1473,13 +884,13 @@
         <v>22</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43551</v>
       </c>
@@ -1493,11 +904,11 @@
         <v>24</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>43555</v>
       </c>
@@ -1511,11 +922,11 @@
         <v>13</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>43556</v>
       </c>
@@ -1529,11 +940,11 @@
         <v>25</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>43558</v>
       </c>
@@ -1547,11 +958,11 @@
         <v>26</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>43559</v>
       </c>
@@ -1565,13 +976,13 @@
         <v>27</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>43564</v>
       </c>
@@ -1585,13 +996,13 @@
         <v>16</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43569</v>
       </c>
@@ -1605,11 +1016,11 @@
         <v>29</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43555</v>
       </c>
@@ -1623,13 +1034,13 @@
         <v>30</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43555</v>
       </c>
@@ -1643,11 +1054,11 @@
         <v>30</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>43557</v>
       </c>
@@ -1661,11 +1072,11 @@
         <v>32</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>43559</v>
       </c>
@@ -1679,11 +1090,11 @@
         <v>32</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>43559</v>
       </c>
@@ -1697,11 +1108,11 @@
         <v>30</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>43564</v>
       </c>
@@ -1715,27 +1126,51 @@
         <v>17</v>
       </c>
       <c r="E28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>43580</v>
+      </c>
+      <c r="B29" s="6">
+        <v>-74</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="F29" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>43579</v>
+      </c>
+      <c r="B30" s="6">
+        <v>363</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1743,7 +1178,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1751,7 +1186,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1759,7 +1194,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -1767,7 +1202,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="7"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1775,7 +1210,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -1784,73 +1219,75 @@
       <c r="F36" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A5"/>
+  <mergeCells count="2">
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="F23:F28"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E22 E23:E28 E29:E1048576">
-      <formula1>Sheet2!$A$2:$A$5</formula1>
-    </dataValidation>
-  </dataValidations>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>